--- a/tests/xls/semester/ИИТ_1 курс_21-22_весна.xlsx
+++ b/tests/xls/semester/ИИТ_1 курс_21-22_весна.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\Schedule-RTU-API\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\Schedule-RTU-API\tests\xls\semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591B41A-59E5-439E-B549-545CF1310BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17829AB1-73A1-4D4D-95BC-5BEAED9EA2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,56 +1638,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,7 +1689,6 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1750,9 +1699,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,15 +1752,9 @@
     <xf numFmtId="0" fontId="31" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,9 +1772,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1860,12 +1797,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1877,9 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1901,12 +1829,6 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1947,9 +1869,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1965,18 +1884,11 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1996,15 +1908,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2015,9 +1918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,6 +1932,103 @@
     <xf numFmtId="0" fontId="47" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2269,11 +2266,11 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1"/>
@@ -2294,59 +2291,59 @@
   <sheetData>
     <row r="1" spans="1:15" s="38" customFormat="1" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="37"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
     </row>
     <row r="2" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="72" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="53">
         <v>10</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="50" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="78">
+      <c r="N2" s="56">
         <v>32</v>
       </c>
-      <c r="O2" s="76"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="53"/>
+      <c r="A3" s="156"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2359,7 +2356,7 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2374,7 +2371,7 @@
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="57" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2391,358 +2388,358 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="167">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="165" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="84"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="90" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="84"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="61">
+      <c r="A6" s="163"/>
+      <c r="B6" s="148">
         <v>2</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="90" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="84"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="99" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="100" t="s">
+      <c r="L7" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="84"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="61">
+      <c r="A8" s="163"/>
+      <c r="B8" s="148">
         <v>3</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="150" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="103" t="s">
+      <c r="J8" s="62"/>
+      <c r="K8" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="101" t="s">
+      <c r="M8" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="84"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="103" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="101" t="s">
+      <c r="M9" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="84"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61">
+      <c r="A10" s="163"/>
+      <c r="B10" s="148">
         <v>4</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="90" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="84"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="90" t="s">
+      <c r="J11" s="62"/>
+      <c r="K11" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="84"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="61">
+      <c r="A12" s="163"/>
+      <c r="B12" s="148">
         <v>5</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="108"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="84"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="81"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="57">
+      <c r="A14" s="163"/>
+      <c r="B14" s="154">
         <v>6</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="113"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="1:15" ht="37.049999999999997" customHeight="1" thickBot="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="154">
         <v>1</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="155" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="124" t="s">
+      <c r="G16" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="96" t="s">
         <v>74</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -2751,13 +2748,13 @@
       <c r="J16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="126" t="s">
+      <c r="M16" s="97" t="s">
         <v>76</v>
       </c>
       <c r="N16" s="9" t="s">
@@ -2768,20 +2765,20 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
       <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="124" t="s">
+      <c r="G17" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="96" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -2790,13 +2787,13 @@
       <c r="J17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="126" t="s">
+      <c r="M17" s="97" t="s">
         <v>76</v>
       </c>
       <c r="N17" s="9" t="s">
@@ -2807,26 +2804,26 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="61">
+      <c r="A18" s="163"/>
+      <c r="B18" s="148">
         <v>2</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="125" t="s">
+      <c r="H18" s="96" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -2835,13 +2832,13 @@
       <c r="J18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="82" t="s">
+      <c r="M18" s="60" t="s">
         <v>82</v>
       </c>
       <c r="N18" s="9" t="s">
@@ -2852,20 +2849,20 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="124" t="s">
+      <c r="G19" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="125" t="s">
+      <c r="H19" s="96" t="s">
         <v>83</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -2874,13 +2871,13 @@
       <c r="J19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="82" t="s">
+      <c r="M19" s="60" t="s">
         <v>82</v>
       </c>
       <c r="N19" s="9" t="s">
@@ -2891,26 +2888,26 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="61">
+      <c r="A20" s="163"/>
+      <c r="B20" s="148">
         <v>3</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="150" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="60" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -2919,13 +2916,13 @@
       <c r="J20" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="82" t="s">
+      <c r="M20" s="60" t="s">
         <v>86</v>
       </c>
       <c r="N20" s="9" t="s">
@@ -2936,20 +2933,20 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="60" t="s">
         <v>86</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -2958,13 +2955,13 @@
       <c r="J21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="80" t="s">
+      <c r="K21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="60" t="s">
         <v>86</v>
       </c>
       <c r="N21" s="9" t="s">
@@ -2975,26 +2972,26 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="61">
+      <c r="A22" s="163"/>
+      <c r="B22" s="148">
         <v>4</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="60" t="s">
         <v>87</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -3003,29 +3000,29 @@
       <c r="J22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="67" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="49"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="125" t="s">
+      <c r="H23" s="96" t="s">
         <v>90</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -3034,62 +3031,62 @@
       <c r="J23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="88"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="31"/>
     </row>
     <row r="24" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="61">
+      <c r="A24" s="163"/>
+      <c r="B24" s="148">
         <v>5</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="105" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="128" t="s">
+      <c r="L24" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="129" t="s">
+      <c r="M24" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="N24" s="88" t="s">
+      <c r="N24" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="84"/>
+      <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="124" t="s">
+      <c r="G25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="96" t="s">
         <v>94</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -3098,592 +3095,592 @@
       <c r="J25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="105" t="s">
+      <c r="K25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L25" s="128" t="s">
+      <c r="L25" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="129" t="s">
+      <c r="M25" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="88" t="s">
+      <c r="N25" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="84"/>
+      <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="57">
+      <c r="A26" s="163"/>
+      <c r="B26" s="154">
         <v>6</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="84"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="62"/>
     </row>
     <row r="27" spans="1:15" ht="37.049999999999997" customHeight="1" thickBot="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="117" t="s">
+      <c r="A27" s="172"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="136"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="136"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
       <c r="N27" s="40"/>
-      <c r="O27" s="121"/>
+      <c r="O27" s="93"/>
     </row>
     <row r="28" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="154">
         <v>1</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="155" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="80" t="s">
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="126" t="s">
+      <c r="M28" s="97" t="s">
         <v>96</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="139"/>
+      <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="80" t="s">
+      <c r="F29" s="71"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="126" t="s">
+      <c r="M29" s="97" t="s">
         <v>96</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="139"/>
+      <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="61">
+      <c r="A30" s="163"/>
+      <c r="B30" s="148">
         <v>2</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="80" t="s">
+      <c r="F30" s="71"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="126" t="s">
+      <c r="M30" s="97" t="s">
         <v>76</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="139"/>
+      <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
       <c r="E31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="127" t="s">
+      <c r="F31" s="71"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="124" t="s">
+      <c r="L31" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="126" t="s">
+      <c r="M31" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="142" t="s">
+      <c r="N31" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="139"/>
+      <c r="O31" s="107"/>
     </row>
     <row r="32" spans="1:15" ht="96.45" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="61">
+      <c r="A32" s="163"/>
+      <c r="B32" s="148">
         <v>3</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="143" t="s">
+      <c r="E32" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="144" t="s">
+      <c r="F32" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="82"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="145"/>
-      <c r="K32" s="80" t="s">
+      <c r="J32" s="113"/>
+      <c r="K32" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="81" t="s">
+      <c r="L32" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="131" t="s">
+      <c r="M32" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="93" t="s">
+      <c r="N32" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="139"/>
+      <c r="O32" s="107"/>
     </row>
     <row r="33" spans="1:15" ht="96.45" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="144" t="s">
+      <c r="F33" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="148"/>
-      <c r="K33" s="149" t="s">
+      <c r="J33" s="114"/>
+      <c r="K33" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="L33" s="150" t="s">
+      <c r="L33" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="M33" s="151" t="s">
+      <c r="M33" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="93" t="s">
+      <c r="N33" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="O33" s="145"/>
+      <c r="O33" s="113"/>
     </row>
     <row r="34" spans="1:15" ht="96.45" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="61">
+      <c r="A34" s="163"/>
+      <c r="B34" s="148">
         <v>4</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="144" t="s">
+      <c r="F34" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="82"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="139"/>
+      <c r="J34" s="107"/>
       <c r="K34" s="39" t="s">
         <v>105</v>
       </c>
       <c r="L34" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="152" t="s">
+      <c r="M34" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="93" t="s">
+      <c r="N34" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="O34" s="139"/>
+      <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:15" ht="96.45" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="144" t="s">
+      <c r="F35" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="82"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="149" t="s">
+      <c r="J35" s="62"/>
+      <c r="K35" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="L35" s="150" t="s">
+      <c r="L35" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="151" t="s">
+      <c r="M35" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="N35" s="93" t="s">
+      <c r="N35" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="O35" s="84"/>
+      <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" ht="65.25" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="61">
+      <c r="A36" s="163"/>
+      <c r="B36" s="148">
         <v>5</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="131" t="s">
+      <c r="H36" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="93" t="s">
+      <c r="I36" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="83"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="39" t="s">
         <v>105</v>
       </c>
       <c r="L36" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M36" s="152" t="s">
+      <c r="M36" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="N36" s="93" t="s">
+      <c r="N36" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="O36" s="153"/>
+      <c r="O36" s="119"/>
     </row>
     <row r="37" spans="1:15" ht="65.25" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="154"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:15" ht="63.75" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="57">
+      <c r="A38" s="163"/>
+      <c r="B38" s="154">
         <v>6</v>
       </c>
-      <c r="C38" s="112" t="s">
+      <c r="C38" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="80"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="82"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="82"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="60"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="84"/>
+      <c r="O38" s="62"/>
     </row>
     <row r="39" spans="1:15" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A39" s="114"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="117" t="s">
+      <c r="A39" s="172"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="134"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="32"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="159"/>
-      <c r="M39" s="160"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="157"/>
+      <c r="O39" s="123"/>
     </row>
     <row r="40" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="154">
         <v>1</v>
       </c>
-      <c r="C40" s="112" t="s">
+      <c r="C40" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="155" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="100" t="s">
+      <c r="G40" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="162" t="s">
+      <c r="H40" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="J40" s="163"/>
-      <c r="K40" s="105" t="s">
+      <c r="J40" s="128"/>
+      <c r="K40" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="128"/>
-      <c r="M40" s="129">
+      <c r="L40" s="99"/>
+      <c r="M40" s="100">
         <v>108</v>
       </c>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="O40" s="164"/>
+      <c r="O40" s="129"/>
     </row>
     <row r="41" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
       <c r="E41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="103" t="s">
+      <c r="F41" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="100" t="s">
+      <c r="G41" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="101" t="s">
+      <c r="H41" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="104" t="s">
+      <c r="I41" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="84"/>
-      <c r="K41" s="105" t="s">
+      <c r="J41" s="62"/>
+      <c r="K41" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="130"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="93" t="s">
+      <c r="L41" s="101"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="O41" s="84"/>
+      <c r="O41" s="62"/>
     </row>
     <row r="42" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="61">
+      <c r="A42" s="163"/>
+      <c r="B42" s="148">
         <v>2</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="F42" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="97"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="73"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="105" t="s">
+      <c r="J42" s="61"/>
+      <c r="K42" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="128"/>
-      <c r="M42" s="129">
+      <c r="L42" s="99"/>
+      <c r="M42" s="100">
         <v>108</v>
       </c>
-      <c r="N42" s="88" t="s">
+      <c r="N42" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="O42" s="84"/>
+      <c r="O42" s="62"/>
     </row>
     <row r="43" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A43" s="63"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="F43" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="81"/>
-      <c r="H43" s="97"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="73"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="105" t="s">
+      <c r="J43" s="62"/>
+      <c r="K43" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="130"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="93" t="s">
+      <c r="L43" s="101"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="O43" s="84"/>
+      <c r="O43" s="62"/>
     </row>
     <row r="44" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="61">
+      <c r="A44" s="163"/>
+      <c r="B44" s="148">
         <v>3</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="150" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="81"/>
-      <c r="H44" s="165"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="130"/>
       <c r="I44" s="9"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="80" t="s">
+      <c r="K44" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="L44" s="81" t="s">
+      <c r="L44" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M44" s="107"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="9" t="s">
         <v>47</v>
       </c>
@@ -3692,27 +3689,27 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
       <c r="E45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="90" t="s">
+      <c r="F45" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="81"/>
-      <c r="H45" s="165"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="130"/>
       <c r="I45" s="9"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="80" t="s">
+      <c r="K45" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="L45" s="81" t="s">
+      <c r="L45" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="107"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="9" t="s">
         <v>47</v>
       </c>
@@ -3721,26 +3718,26 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="61">
+      <c r="A46" s="163"/>
+      <c r="B46" s="148">
         <v>4</v>
       </c>
-      <c r="C46" s="94" t="s">
+      <c r="C46" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="166" t="s">
+      <c r="F46" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="150" t="s">
+      <c r="G46" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="82" t="s">
+      <c r="H46" s="60" t="s">
         <v>113</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -3749,13 +3746,13 @@
       <c r="J46" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K46" s="166" t="s">
+      <c r="K46" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="150" t="s">
+      <c r="L46" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="M46" s="82" t="s">
+      <c r="M46" s="60" t="s">
         <v>113</v>
       </c>
       <c r="N46" s="9" t="s">
@@ -3766,20 +3763,20 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A47" s="63"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
       <c r="E47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="166" t="s">
+      <c r="F47" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="150" t="s">
+      <c r="G47" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="82" t="s">
+      <c r="H47" s="60" t="s">
         <v>113</v>
       </c>
       <c r="I47" s="9" t="s">
@@ -3788,13 +3785,13 @@
       <c r="J47" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K47" s="166" t="s">
+      <c r="K47" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="L47" s="150" t="s">
+      <c r="L47" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="M47" s="82" t="s">
+      <c r="M47" s="60" t="s">
         <v>113</v>
       </c>
       <c r="N47" s="9" t="s">
@@ -3805,33 +3802,33 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A48" s="63"/>
-      <c r="B48" s="61">
+      <c r="A48" s="163"/>
+      <c r="B48" s="148">
         <v>5</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="D48" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="90" t="s">
+      <c r="F48" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
       <c r="I48" s="9"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="80" t="s">
+      <c r="K48" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="150" t="s">
+      <c r="L48" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="82" t="s">
+      <c r="M48" s="60" t="s">
         <v>116</v>
       </c>
       <c r="N48" s="9" t="s">
@@ -3842,27 +3839,27 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
       <c r="E49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="90" t="s">
+      <c r="F49" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="81"/>
-      <c r="H49" s="165"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="130"/>
       <c r="I49" s="9"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="80" t="s">
+      <c r="K49" s="58" t="s">
         <v>59</v>
       </c>
       <c r="L49" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="M49" s="82" t="s">
+      <c r="M49" s="60" t="s">
         <v>117</v>
       </c>
       <c r="N49" s="9" t="s">
@@ -3873,33 +3870,33 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A50" s="63"/>
-      <c r="B50" s="57">
+      <c r="A50" s="163"/>
+      <c r="B50" s="154">
         <v>6</v>
       </c>
-      <c r="C50" s="112" t="s">
+      <c r="C50" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="90" t="s">
+      <c r="F50" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="81"/>
-      <c r="H50" s="82"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="9"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="155" t="s">
+      <c r="K50" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="L50" s="81" t="s">
+      <c r="L50" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="M50" s="82" t="s">
+      <c r="M50" s="60" t="s">
         <v>118</v>
       </c>
       <c r="N50" s="9" t="s">
@@ -3910,28 +3907,28 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="37.049999999999997" customHeight="1" thickBot="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
+      <c r="A51" s="164"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
       <c r="E51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="158"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="156"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="122"/>
       <c r="J51" s="34"/>
-      <c r="K51" s="158" t="s">
+      <c r="K51" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="135" t="s">
+      <c r="L51" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="M51" s="136" t="s">
+      <c r="M51" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="N51" s="156" t="s">
+      <c r="N51" s="122" t="s">
         <v>47</v>
       </c>
       <c r="O51" s="34" t="s">
@@ -3939,648 +3936,648 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="33" customHeight="1">
-      <c r="A52" s="168" t="s">
+      <c r="A52" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="154">
         <v>1</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="165" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="105"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="170"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="133"/>
       <c r="I52" s="9"/>
       <c r="J52" s="35"/>
-      <c r="K52" s="80" t="s">
+      <c r="K52" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="81" t="s">
+      <c r="L52" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="131" t="s">
+      <c r="M52" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="N52" s="93" t="s">
+      <c r="N52" s="70" t="s">
         <v>120</v>
       </c>
       <c r="O52" s="35"/>
     </row>
     <row r="53" spans="1:15" ht="33" customHeight="1">
-      <c r="A53" s="171"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
+      <c r="A53" s="175"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="82"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="60"/>
       <c r="I53" s="9"/>
       <c r="J53" s="31"/>
-      <c r="K53" s="80" t="s">
+      <c r="K53" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L53" s="81" t="s">
+      <c r="L53" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M53" s="131" t="s">
+      <c r="M53" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="N53" s="93" t="s">
+      <c r="N53" s="70" t="s">
         <v>120</v>
       </c>
       <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" ht="33" customHeight="1">
-      <c r="A54" s="171"/>
-      <c r="B54" s="61">
+      <c r="A54" s="175"/>
+      <c r="B54" s="148">
         <v>2</v>
       </c>
-      <c r="C54" s="94" t="s">
+      <c r="C54" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="90"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="97"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="73"/>
       <c r="I54" s="9"/>
       <c r="J54" s="31"/>
-      <c r="K54" s="80" t="s">
+      <c r="K54" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L54" s="81" t="s">
+      <c r="L54" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="129" t="s">
+      <c r="M54" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="N54" s="93" t="s">
+      <c r="N54" s="70" t="s">
         <v>120</v>
       </c>
       <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" ht="33" customHeight="1">
-      <c r="A55" s="171"/>
-      <c r="B55" s="146"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="97"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="73"/>
       <c r="I55" s="9"/>
       <c r="J55" s="31"/>
-      <c r="K55" s="80" t="s">
+      <c r="K55" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="81" t="s">
+      <c r="L55" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M55" s="131" t="s">
+      <c r="M55" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="N55" s="93" t="s">
+      <c r="N55" s="70" t="s">
         <v>120</v>
       </c>
       <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" ht="33" customHeight="1">
-      <c r="A56" s="171"/>
-      <c r="B56" s="61">
+      <c r="A56" s="175"/>
+      <c r="B56" s="148">
         <v>3</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="94" t="s">
+      <c r="D56" s="150" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="105" t="s">
+      <c r="F56" s="58"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="L56" s="81" t="s">
+      <c r="L56" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M56" s="82" t="s">
+      <c r="M56" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="N56" s="93" t="s">
+      <c r="N56" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="O56" s="84"/>
+      <c r="O56" s="62"/>
     </row>
     <row r="57" spans="1:15" ht="33" customHeight="1">
-      <c r="A57" s="171"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
+      <c r="A57" s="175"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
       <c r="E57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="105" t="s">
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="L57" s="81" t="s">
+      <c r="L57" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M57" s="82" t="s">
+      <c r="M57" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="O57" s="84"/>
+      <c r="O57" s="62"/>
     </row>
     <row r="58" spans="1:15" ht="33" customHeight="1">
-      <c r="A58" s="171"/>
-      <c r="B58" s="61">
+      <c r="A58" s="175"/>
+      <c r="B58" s="148">
         <v>4</v>
       </c>
-      <c r="C58" s="94" t="s">
+      <c r="C58" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="94" t="s">
+      <c r="D58" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="172"/>
-      <c r="G58" s="173"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="135"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="175"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="84"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="N58" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="O58" s="62"/>
     </row>
     <row r="59" spans="1:15" ht="33" customHeight="1">
-      <c r="A59" s="171"/>
-      <c r="B59" s="146"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
+      <c r="A59" s="175"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="80"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="7"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="84"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="62"/>
     </row>
     <row r="60" spans="1:15" ht="33" customHeight="1">
-      <c r="A60" s="171"/>
-      <c r="B60" s="61">
+      <c r="A60" s="175"/>
+      <c r="B60" s="148">
         <v>5</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="80"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="82"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="60"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="176"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="84"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L60" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="N60" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="O60" s="62"/>
     </row>
     <row r="61" spans="1:15" ht="33" customHeight="1">
-      <c r="A61" s="171"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="143" t="s">
+      <c r="A61" s="175"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="82"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="60"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="176"/>
-      <c r="M61" s="82"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="60"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="84"/>
+      <c r="O61" s="62"/>
     </row>
     <row r="62" spans="1:15" ht="33" customHeight="1">
-      <c r="A62" s="171"/>
-      <c r="B62" s="57">
+      <c r="A62" s="175"/>
+      <c r="B62" s="154">
         <v>6</v>
       </c>
-      <c r="C62" s="112" t="s">
+      <c r="C62" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="177"/>
+      <c r="F62" s="139"/>
       <c r="G62" s="49"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="177"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="139"/>
       <c r="L62" s="49"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
     </row>
     <row r="63" spans="1:15" ht="33" customHeight="1" thickBot="1">
-      <c r="A63" s="178"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
+      <c r="A63" s="176"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
       <c r="E63" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="118"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="119"/>
-      <c r="M63" s="120"/>
-      <c r="N63" s="121"/>
-      <c r="O63" s="121"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="92"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
     </row>
     <row r="64" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="54">
+      <c r="B64" s="167">
         <v>1</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="165" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="80"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="82"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="60"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="163"/>
-      <c r="K64" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="L64" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="M64" s="182" t="s">
-        <v>124</v>
-      </c>
-      <c r="N64" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="O64" s="163"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="128"/>
     </row>
     <row r="65" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
+      <c r="A65" s="163"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="153"/>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="80"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="82"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="60"/>
       <c r="I65" s="9"/>
       <c r="J65" s="31"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="183"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="83"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
     </row>
     <row r="66" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A66" s="63"/>
-      <c r="B66" s="61">
+      <c r="A66" s="163"/>
+      <c r="B66" s="148">
         <v>2</v>
       </c>
-      <c r="C66" s="94" t="s">
+      <c r="C66" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="150" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="127" t="s">
+      <c r="F66" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="G66" s="81" t="s">
+      <c r="G66" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="82" t="s">
+      <c r="H66" s="60" t="s">
         <v>126</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J66" s="83"/>
-      <c r="K66" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="L66" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="M66" s="182" t="s">
-        <v>124</v>
-      </c>
-      <c r="N66" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="O66" s="83"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
     </row>
     <row r="67" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
       <c r="E67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="127" t="s">
+      <c r="F67" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="G67" s="81" t="s">
+      <c r="G67" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="82" t="s">
+      <c r="H67" s="60" t="s">
         <v>126</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J67" s="83"/>
-      <c r="K67" s="184"/>
-      <c r="L67" s="185"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
     </row>
     <row r="68" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A68" s="63"/>
-      <c r="B68" s="61">
+      <c r="A68" s="163"/>
+      <c r="B68" s="148">
         <v>3</v>
       </c>
-      <c r="C68" s="94" t="s">
+      <c r="C68" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="150" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F68" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="124" t="s">
+      <c r="G68" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="186" t="s">
+      <c r="H68" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="141" t="s">
+      <c r="I68" s="109" t="s">
         <v>129</v>
       </c>
       <c r="J68" s="48"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="186"/>
-      <c r="N68" s="142"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="110"/>
       <c r="O68" s="48"/>
     </row>
     <row r="69" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A69" s="63"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
+      <c r="A69" s="163"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
       <c r="E69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="80" t="s">
+      <c r="F69" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="124" t="s">
+      <c r="G69" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="186" t="s">
+      <c r="H69" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="I69" s="141" t="s">
+      <c r="I69" s="109" t="s">
         <v>129</v>
       </c>
       <c r="J69" s="48"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="125"/>
-      <c r="N69" s="142"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="110"/>
       <c r="O69" s="48"/>
     </row>
     <row r="70" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A70" s="63"/>
-      <c r="B70" s="61">
+      <c r="A70" s="163"/>
+      <c r="B70" s="148">
         <v>4</v>
       </c>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="94" t="s">
+      <c r="D70" s="150" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="95" t="s">
+      <c r="F70" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G70" s="124" t="s">
+      <c r="G70" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="82" t="s">
+      <c r="H70" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I70" s="83" t="s">
+      <c r="I70" s="61" t="s">
         <v>69</v>
       </c>
       <c r="J70" s="48"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="186"/>
-      <c r="N70" s="142"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="110"/>
       <c r="O70" s="48"/>
     </row>
     <row r="71" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A71" s="63"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
+      <c r="A71" s="163"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
       <c r="E71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="95" t="s">
+      <c r="F71" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="124" t="s">
+      <c r="G71" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="82" t="s">
+      <c r="H71" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I71" s="83" t="s">
+      <c r="I71" s="61" t="s">
         <v>69</v>
       </c>
       <c r="J71" s="48"/>
-      <c r="K71" s="175"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="125"/>
-      <c r="N71" s="142"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="110"/>
       <c r="O71" s="48"/>
     </row>
     <row r="72" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A72" s="63"/>
-      <c r="B72" s="61">
+      <c r="A72" s="163"/>
+      <c r="B72" s="148">
         <v>5</v>
       </c>
-      <c r="C72" s="94" t="s">
+      <c r="C72" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="150" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="95"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="187"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
     </row>
     <row r="73" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A73" s="63"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
+      <c r="A73" s="163"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="153"/>
+      <c r="D73" s="153"/>
       <c r="E73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="184"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="184"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="163"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="145"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="128"/>
     </row>
     <row r="74" spans="1:15" ht="37.049999999999997" customHeight="1">
-      <c r="A74" s="63"/>
-      <c r="B74" s="57">
+      <c r="A74" s="163"/>
+      <c r="B74" s="154">
         <v>6</v>
       </c>
-      <c r="C74" s="112" t="s">
+      <c r="C74" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="112" t="s">
+      <c r="D74" s="155" t="s">
         <v>25</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="184"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="187"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="145"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
     </row>
     <row r="75" spans="1:15" ht="37.049999999999997" customHeight="1" thickBot="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
+      <c r="A75" s="164"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
       <c r="E75" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="188"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="189"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="147"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="137"/>
-      <c r="K75" s="188"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="189"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="146"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="147"/>
       <c r="N75" s="40"/>
-      <c r="O75" s="157"/>
+      <c r="O75" s="123"/>
     </row>
     <row r="76" spans="1:15" ht="50.25" customHeight="1">
       <c r="A76" s="17"/>
@@ -4613,44 +4610,44 @@
     <row r="78" spans="1:15" ht="39" customHeight="1">
       <c r="A78" s="25"/>
       <c r="B78" s="26"/>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="161"/>
     </row>
     <row r="79" spans="1:15" ht="28.5" customHeight="1">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="161"/>
+      <c r="G79" s="161"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="161"/>
+      <c r="J79" s="161"/>
     </row>
     <row r="80" spans="1:15" ht="28.5" customHeight="1">
       <c r="A80" s="25"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="161"/>
+      <c r="G80" s="161"/>
+      <c r="H80" s="161"/>
+      <c r="I80" s="161"/>
+      <c r="J80" s="161"/>
     </row>
     <row r="81" spans="1:10" ht="28.5" customHeight="1">
       <c r="A81" s="25"/>
@@ -4683,30 +4680,30 @@
     <row r="83" spans="1:10" ht="28.5" customHeight="1">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="161"/>
+      <c r="I83" s="161"/>
+      <c r="J83" s="161"/>
     </row>
     <row r="84" spans="1:10" ht="28.5" customHeight="1">
       <c r="A84" s="25"/>
       <c r="B84" s="26"/>
-      <c r="C84" s="65" t="s">
+      <c r="C84" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="161"/>
     </row>
     <row r="85" spans="1:10" ht="28.5" customHeight="1">
       <c r="A85" s="25"/>
@@ -15718,39 +15715,71 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="C84:J84"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="A64:A75"/>
@@ -15775,71 +15804,39 @@
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="C83:J83"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O16" r:id="rId1" xr:uid="{96D752AF-5416-41DB-B322-7E998DA02390}"/>
